--- a/probnik_krilov/3var1-4.xlsx
+++ b/probnik_krilov/3var1-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irlas\PycharmProjects\ege\probnik_krilov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC1C1F4-CF38-496E-A2BD-90883B48C9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6ECEE-ADD2-4585-9E52-3AEA3F6FF57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3364,7 +3364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19459,7 +19459,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
